--- a/specific_variables/sams-snow-temperature-profile.xlsx
+++ b/specific_variables/sams-snow-temperature-profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA4682-756E-2A43-ADF9-2BB7B7A4223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B6370-4B6F-A94A-BCCA-54F2DC90FD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17240" yWindow="1860" windowWidth="20540" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Variable</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>standard_name</t>
   </si>
   <si>
     <t>long_name</t>
@@ -566,10 +563,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C983"/>
+  <dimension ref="A1:C981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -593,7 +590,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -613,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -628,16 +625,16 @@
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="16">
         <v>-1E+20</v>
@@ -646,19 +643,19 @@
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -668,7 +665,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -693,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -701,180 +698,174 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
+      <c r="C16" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1E+20</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7">
-        <v>-1E+20</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="3"/>
-    </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9">
-        <v>1</v>
+      <c r="B34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>27</v>
+      <c r="B35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
     </row>
@@ -884,9 +875,9 @@
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
@@ -896,30 +887,30 @@
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="9"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8"/>
     </row>
@@ -929,9 +920,9 @@
       <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
@@ -941,86 +932,82 @@
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="8"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="2"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="3"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="4"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="2"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="2"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="3"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="4"/>
-      <c r="C72" s="11"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="3"/>
@@ -1029,27 +1016,27 @@
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="3"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="2"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="2"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="3"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="4"/>
-      <c r="C81" s="11"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="3"/>
@@ -1058,27 +1045,27 @@
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="3"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="3"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="2"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="2"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="3"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
     </row>
     <row r="90" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="4"/>
-      <c r="C90" s="11"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="3"/>
@@ -1087,27 +1074,27 @@
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="3"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="3"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="2"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="2"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="3"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="4"/>
-      <c r="C99" s="11"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="3"/>
@@ -1116,27 +1103,27 @@
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="3"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="3"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="2"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="2"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="3"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="4"/>
-      <c r="C108" s="11"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="3"/>
@@ -1145,57 +1132,57 @@
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="3"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="3"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="2"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="2"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="3"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="4"/>
-      <c r="C117" s="11"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="14"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="14"/>
-      <c r="C121" s="3"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="3"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="2"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="2"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="3"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="4"/>
-      <c r="C126" s="11"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="3"/>
@@ -1204,27 +1191,27 @@
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="3"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="3"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="2"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="2"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="3"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="4"/>
-      <c r="C135" s="11"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="3"/>
@@ -1233,27 +1220,27 @@
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="3"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="3"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="2"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="2"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="3"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="4"/>
-      <c r="C144" s="11"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="3"/>
@@ -1262,27 +1249,27 @@
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="3"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="3"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="2"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="2"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="3"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="4"/>
-      <c r="C153" s="11"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="3"/>
@@ -1291,27 +1278,27 @@
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="3"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="3"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="2"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="2"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="3"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="13"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="4"/>
-      <c r="C162" s="11"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="3"/>
@@ -1320,27 +1307,27 @@
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="3"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="3"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="2"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="2"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="3"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="13"/>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="4"/>
-      <c r="C171" s="11"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="3"/>
@@ -1349,27 +1336,27 @@
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="3"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="3"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="2"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="2"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="3"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="13"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="4"/>
-      <c r="C180" s="11"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="3"/>
@@ -1378,27 +1365,27 @@
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="3"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="3"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="2"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="2"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="3"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="13"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="4"/>
-      <c r="C189" s="11"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="3"/>
@@ -1407,27 +1394,27 @@
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C193" s="3"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="3"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="2"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="2"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="3"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="4"/>
-      <c r="C198" s="11"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="12"/>
-      <c r="C199" s="13"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="3"/>
@@ -1436,27 +1423,27 @@
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="3"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="3"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="2"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C205" s="2"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C206" s="3"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="13"/>
     </row>
     <row r="207" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="4"/>
-      <c r="C207" s="11"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="12"/>
-      <c r="C208" s="13"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C209" s="3"/>
@@ -3774,14 +3761,8 @@
     <row r="980" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C980" s="3"/>
     </row>
-    <row r="981" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C981" s="3"/>
-    </row>
-    <row r="982" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C982" s="3"/>
-    </row>
-    <row r="983" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C983" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
